--- a/Work_shop.xlsx
+++ b/Work_shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Denys-bit.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E0C2B-5FCD-4717-AF42-34F6AF258FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458236A-337A-4CB1-A301-67F6A6317EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,22 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -69,10 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -353,19 +356,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
